--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="833">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2326,16 +2326,31 @@
     <t xml:space="preserve">Assembly Line SchedulingProblem</t>
   </si>
   <si>
+    <t xml:space="preserve">Take 2 variables T1, T2 and perform DP from 1 to n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Painting the Fenceproblem</t>
   </si>
   <si>
+    <t xml:space="preserve">keep track of same and diff counter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximize The Cut Segments</t>
   </si>
   <si>
+    <t xml:space="preserve">calculate max cut for each n value, if can’t be cut, set to (-INFINITY)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longest Common Subsequence</t>
   </si>
   <si>
+    <t xml:space="preserve">similar to edit distance (bottom-up DP with 1d array)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perform LCS with an extra condition that ( i != j )</t>
   </si>
   <si>
     <t xml:space="preserve">Longest Increasing Subsequence</t>
@@ -3031,7 +3046,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D416" activeCellId="0" sqref="D416"/>
+      <selection pane="topLeft" activeCell="D421" activeCellId="0" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7453,8 +7468,8 @@
       <c r="C420" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="D420" s="10" t="s">
-        <v>71</v>
+      <c r="D420" s="7" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7462,10 +7477,10 @@
         <v>747</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="D421" s="10" t="s">
-        <v>71</v>
+        <v>769</v>
+      </c>
+      <c r="D421" s="7" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7473,10 +7488,10 @@
         <v>747</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="D422" s="10" t="s">
-        <v>71</v>
+        <v>771</v>
+      </c>
+      <c r="D422" s="7" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7484,10 +7499,10 @@
         <v>747</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="D423" s="10" t="s">
-        <v>71</v>
+        <v>773</v>
+      </c>
+      <c r="D423" s="7" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,10 +7510,10 @@
         <v>747</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="D424" s="10" t="s">
-        <v>71</v>
+        <v>775</v>
+      </c>
+      <c r="D424" s="7" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7506,9 +7521,9 @@
         <v>747</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="D425" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="D425" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7517,9 +7532,9 @@
         <v>747</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="D426" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="D426" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7528,9 +7543,9 @@
         <v>747</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="D427" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="D427" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7539,9 +7554,9 @@
         <v>747</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="D428" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D428" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7550,9 +7565,9 @@
         <v>747</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D429" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="D429" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7561,7 +7576,7 @@
         <v>747</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>71</v>
@@ -7572,7 +7587,7 @@
         <v>747</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>71</v>
@@ -7583,7 +7598,7 @@
         <v>747</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>71</v>
@@ -7594,7 +7609,7 @@
         <v>747</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>71</v>
@@ -7605,7 +7620,7 @@
         <v>747</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>71</v>
@@ -7616,7 +7631,7 @@
         <v>747</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>71</v>
@@ -7627,7 +7642,7 @@
         <v>747</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>71</v>
@@ -7638,7 +7653,7 @@
         <v>747</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>71</v>
@@ -7649,7 +7664,7 @@
         <v>747</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>71</v>
@@ -7660,7 +7675,7 @@
         <v>747</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>71</v>
@@ -7671,7 +7686,7 @@
         <v>747</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>71</v>
@@ -7682,7 +7697,7 @@
         <v>747</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>71</v>
@@ -7693,7 +7708,7 @@
         <v>747</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>71</v>
@@ -7704,7 +7719,7 @@
         <v>747</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>71</v>
@@ -7715,7 +7730,7 @@
         <v>747</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>71</v>
@@ -7726,7 +7741,7 @@
         <v>747</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>71</v>
@@ -7737,7 +7752,7 @@
         <v>747</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>71</v>
@@ -7748,7 +7763,7 @@
         <v>747</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>71</v>
@@ -7759,7 +7774,7 @@
         <v>747</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>71</v>
@@ -7770,7 +7785,7 @@
         <v>747</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>71</v>
@@ -7781,7 +7796,7 @@
         <v>747</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>71</v>
@@ -7792,7 +7807,7 @@
         <v>747</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>71</v>
@@ -7803,7 +7818,7 @@
         <v>747</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>71</v>
@@ -7814,7 +7829,7 @@
         <v>747</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>71</v>
@@ -7825,7 +7840,7 @@
         <v>747</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>71</v>
@@ -7836,7 +7851,7 @@
         <v>747</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>71</v>
@@ -7847,7 +7862,7 @@
         <v>747</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>71</v>
@@ -7858,7 +7873,7 @@
         <v>747</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>71</v>
@@ -7869,7 +7884,7 @@
         <v>747</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>71</v>
@@ -7880,7 +7895,7 @@
         <v>747</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>71</v>
@@ -7891,7 +7906,7 @@
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>71</v>
@@ -7902,7 +7917,7 @@
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>71</v>
@@ -7913,7 +7928,7 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>71</v>
@@ -7924,7 +7939,7 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>71</v>
@@ -7935,7 +7950,7 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>71</v>
@@ -7946,7 +7961,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -7957,7 +7972,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -7968,7 +7983,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -7979,7 +7994,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -7990,7 +8005,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8007,10 +8022,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8018,10 +8033,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8029,10 +8044,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8040,10 +8055,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8051,10 +8066,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8062,10 +8077,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8073,10 +8088,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8084,10 +8099,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8095,10 +8110,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8106,10 +8121,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="838">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2356,16 +2356,61 @@
     <t xml:space="preserve">Longest Increasing Subsequence</t>
   </si>
   <si>
+    <t xml:space="preserve">use counter array where index = count and dp[index] = last element of subsequence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Space Optimized Solution of LCS</t>
   </si>
   <si>
+    <t xml:space="preserve">use 1d array and a prev value</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
   </si>
   <si>
+    <t xml:space="preserve">just use LCS in 3D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">perform N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LIS where store sum instead of length</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use 2d DP of size [k + 1][n + 1], DP[i] = DP[i-1] + possible including element arr[i – 1]</t>
   </si>
   <si>
     <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
@@ -2530,7 +2575,7 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="\$#,##0_);[RED]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2644,6 +2689,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3046,7 +3099,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D421" activeCellId="0" sqref="D421"/>
+      <selection pane="topLeft" activeCell="D426" activeCellId="0" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7516,15 +7569,15 @@
         <v>776</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="D425" s="11" t="s">
-        <v>71</v>
+      <c r="D425" s="7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,10 +7585,10 @@
         <v>747</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="D426" s="11" t="s">
-        <v>71</v>
+        <v>779</v>
+      </c>
+      <c r="D426" s="7" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,10 +7596,10 @@
         <v>747</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="D427" s="11" t="s">
-        <v>71</v>
+        <v>781</v>
+      </c>
+      <c r="D427" s="7" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7554,21 +7607,21 @@
         <v>747</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="D428" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>783</v>
+      </c>
+      <c r="D428" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>71</v>
+        <v>786</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7576,7 +7629,7 @@
         <v>747</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>71</v>
@@ -7587,7 +7640,7 @@
         <v>747</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>71</v>
@@ -7598,7 +7651,7 @@
         <v>747</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>71</v>
@@ -7609,7 +7662,7 @@
         <v>747</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>71</v>
@@ -7620,7 +7673,7 @@
         <v>747</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>71</v>
@@ -7631,7 +7684,7 @@
         <v>747</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>71</v>
@@ -7642,7 +7695,7 @@
         <v>747</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>71</v>
@@ -7653,7 +7706,7 @@
         <v>747</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>71</v>
@@ -7664,7 +7717,7 @@
         <v>747</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>71</v>
@@ -7675,7 +7728,7 @@
         <v>747</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>71</v>
@@ -7686,7 +7739,7 @@
         <v>747</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>71</v>
@@ -7697,7 +7750,7 @@
         <v>747</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>71</v>
@@ -7708,7 +7761,7 @@
         <v>747</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>71</v>
@@ -7719,7 +7772,7 @@
         <v>747</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>71</v>
@@ -7730,7 +7783,7 @@
         <v>747</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>71</v>
@@ -7741,7 +7794,7 @@
         <v>747</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>71</v>
@@ -7752,7 +7805,7 @@
         <v>747</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>71</v>
@@ -7763,7 +7816,7 @@
         <v>747</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>71</v>
@@ -7774,7 +7827,7 @@
         <v>747</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>71</v>
@@ -7785,7 +7838,7 @@
         <v>747</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>71</v>
@@ -7796,7 +7849,7 @@
         <v>747</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>71</v>
@@ -7807,7 +7860,7 @@
         <v>747</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>71</v>
@@ -7818,7 +7871,7 @@
         <v>747</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>71</v>
@@ -7829,7 +7882,7 @@
         <v>747</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>71</v>
@@ -7840,7 +7893,7 @@
         <v>747</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>71</v>
@@ -7851,7 +7904,7 @@
         <v>747</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>71</v>
@@ -7862,7 +7915,7 @@
         <v>747</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>71</v>
@@ -7873,7 +7926,7 @@
         <v>747</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>71</v>
@@ -7884,7 +7937,7 @@
         <v>747</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>71</v>
@@ -7895,7 +7948,7 @@
         <v>747</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>71</v>
@@ -7906,7 +7959,7 @@
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>71</v>
@@ -7917,7 +7970,7 @@
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>71</v>
@@ -7928,7 +7981,7 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>71</v>
@@ -7939,7 +7992,7 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>71</v>
@@ -7950,7 +8003,7 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>71</v>
@@ -7961,7 +8014,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -7972,7 +8025,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -7983,7 +8036,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -7994,7 +8047,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8005,7 +8058,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8022,10 +8075,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8033,10 +8086,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8044,10 +8097,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8055,10 +8108,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8066,10 +8119,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8077,10 +8130,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8088,10 +8141,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8099,10 +8152,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8110,10 +8163,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8121,10 +8174,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="843">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2416,16 +2416,31 @@
     <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
   </si>
   <si>
+    <t xml:space="preserve">Perform LIS with condition being difference = 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
   </si>
   <si>
+    <t xml:space="preserve">similar to no 2 adjacent except handle 3 cases starting from I = 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Egg Dropping Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">Choose best of worst =&gt; f(e, f) = min(max(f(e, f-k), f(e-1,k-1)) for k=0 to f-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum Length Chain of Pairs</t>
   </si>
   <si>
+    <t xml:space="preserve">perform LIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottom up 1d DP like Lcs</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
@@ -3098,8 +3113,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D426" activeCellId="0" sqref="D426"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A412" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D435" activeCellId="0" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7613,14 +7628,14 @@
         <v>784</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="D429" s="11" t="s">
+      <c r="D429" s="7" t="s">
         <v>786</v>
       </c>
     </row>
@@ -7631,8 +7646,8 @@
       <c r="C430" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="D430" s="10" t="s">
-        <v>71</v>
+      <c r="D430" s="7" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7640,10 +7655,10 @@
         <v>747</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="D431" s="10" t="s">
-        <v>71</v>
+        <v>789</v>
+      </c>
+      <c r="D431" s="7" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7651,21 +7666,21 @@
         <v>747</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="D432" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>791</v>
+      </c>
+      <c r="D432" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="D433" s="10" t="s">
-        <v>71</v>
+        <v>793</v>
+      </c>
+      <c r="D433" s="11" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,10 +7688,10 @@
         <v>747</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="D434" s="10" t="s">
-        <v>71</v>
+        <v>795</v>
+      </c>
+      <c r="D434" s="7" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7684,9 +7699,9 @@
         <v>747</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="D435" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="D435" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7695,9 +7710,9 @@
         <v>747</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="D436" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D436" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7706,9 +7721,9 @@
         <v>747</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="D437" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="D437" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7717,9 +7732,9 @@
         <v>747</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="D438" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D438" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7728,9 +7743,9 @@
         <v>747</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="D439" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D439" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7739,7 +7754,7 @@
         <v>747</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>71</v>
@@ -7750,7 +7765,7 @@
         <v>747</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>71</v>
@@ -7761,7 +7776,7 @@
         <v>747</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>71</v>
@@ -7772,7 +7787,7 @@
         <v>747</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>71</v>
@@ -7783,7 +7798,7 @@
         <v>747</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>71</v>
@@ -7794,7 +7809,7 @@
         <v>747</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>71</v>
@@ -7805,7 +7820,7 @@
         <v>747</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>71</v>
@@ -7816,7 +7831,7 @@
         <v>747</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>71</v>
@@ -7827,7 +7842,7 @@
         <v>747</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>71</v>
@@ -7838,7 +7853,7 @@
         <v>747</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>71</v>
@@ -7849,7 +7864,7 @@
         <v>747</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>71</v>
@@ -7860,7 +7875,7 @@
         <v>747</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>71</v>
@@ -7871,7 +7886,7 @@
         <v>747</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>71</v>
@@ -7882,7 +7897,7 @@
         <v>747</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>71</v>
@@ -7893,7 +7908,7 @@
         <v>747</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>71</v>
@@ -7904,7 +7919,7 @@
         <v>747</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>71</v>
@@ -7915,7 +7930,7 @@
         <v>747</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>71</v>
@@ -7926,7 +7941,7 @@
         <v>747</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>71</v>
@@ -7937,7 +7952,7 @@
         <v>747</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>71</v>
@@ -7948,7 +7963,7 @@
         <v>747</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>71</v>
@@ -7959,7 +7974,7 @@
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>71</v>
@@ -7970,7 +7985,7 @@
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>71</v>
@@ -7981,7 +7996,7 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>71</v>
@@ -7992,7 +8007,7 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>71</v>
@@ -8003,7 +8018,7 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>71</v>
@@ -8014,7 +8029,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -8025,7 +8040,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -8036,7 +8051,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -8047,7 +8062,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8058,7 +8073,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8075,10 +8090,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8086,10 +8101,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8097,10 +8112,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8108,10 +8123,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8119,10 +8134,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8130,10 +8145,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8141,10 +8156,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8152,10 +8167,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8163,10 +8178,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8174,10 +8189,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="848">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2434,7 +2434,7 @@
     <t xml:space="preserve">Maximum Length Chain of Pairs</t>
   </si>
   <si>
-    <t xml:space="preserve">perform LIS</t>
+    <t xml:space="preserve">Sort based on first value then perform LIS</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
@@ -2446,16 +2446,31 @@
     <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
   </si>
   <si>
+    <t xml:space="preserve">dp contains sum upto ith term such that if diff &gt; k, dp[i] = dp[i – 1] else dp[i] = dp[i – 2] + arr[i] + arr[i – 1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Min Cost PathProblem</t>
   </si>
   <si>
+    <t xml:space="preserve">solve it like gold mine problem</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
   </si>
   <si>
+    <t xml:space="preserve">use kadane’s algorithm with ‘0’ as 1 and ‘1’ as -1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum number of jumps to reach end</t>
   </si>
   <si>
+    <t xml:space="preserve">use variables jumps, steps and maxreachable, if maxreachable &lt;= I return -1, steps = maxreachable – I, return jumps if end is reached</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove -1 values then, perform 01 knapsack</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
@@ -3113,8 +3128,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A412" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D435" activeCellId="0" sqref="D435"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A424" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D437" activeCellId="0" sqref="D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7672,14 +7687,14 @@
         <v>792</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="D433" s="11" t="s">
+      <c r="D433" s="7" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7694,15 +7709,15 @@
         <v>796</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="D435" s="11" t="s">
-        <v>71</v>
+      <c r="D435" s="7" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,10 +7725,10 @@
         <v>747</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="D436" s="11" t="s">
-        <v>71</v>
+        <v>799</v>
+      </c>
+      <c r="D436" s="7" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,21 +7736,21 @@
         <v>747</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="D437" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>801</v>
+      </c>
+      <c r="D437" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="D438" s="11" t="s">
-        <v>71</v>
+        <v>803</v>
+      </c>
+      <c r="D438" s="7" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7743,10 +7758,10 @@
         <v>747</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="D439" s="11" t="s">
-        <v>71</v>
+        <v>805</v>
+      </c>
+      <c r="D439" s="7" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,9 +7769,9 @@
         <v>747</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="D440" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="D440" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7765,9 +7780,9 @@
         <v>747</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="D441" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="D441" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7776,9 +7791,9 @@
         <v>747</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="D442" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="D442" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7787,9 +7802,9 @@
         <v>747</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D443" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="D443" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7798,9 +7813,9 @@
         <v>747</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="D444" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="D444" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7809,7 +7824,7 @@
         <v>747</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>71</v>
@@ -7820,7 +7835,7 @@
         <v>747</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>71</v>
@@ -7831,7 +7846,7 @@
         <v>747</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>71</v>
@@ -7842,7 +7857,7 @@
         <v>747</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>71</v>
@@ -7853,7 +7868,7 @@
         <v>747</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>71</v>
@@ -7864,7 +7879,7 @@
         <v>747</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>71</v>
@@ -7875,7 +7890,7 @@
         <v>747</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>71</v>
@@ -7886,7 +7901,7 @@
         <v>747</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>71</v>
@@ -7897,7 +7912,7 @@
         <v>747</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>71</v>
@@ -7908,7 +7923,7 @@
         <v>747</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>71</v>
@@ -7919,7 +7934,7 @@
         <v>747</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>71</v>
@@ -7930,7 +7945,7 @@
         <v>747</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>71</v>
@@ -7941,7 +7956,7 @@
         <v>747</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>71</v>
@@ -7952,7 +7967,7 @@
         <v>747</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>71</v>
@@ -7963,7 +7978,7 @@
         <v>747</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>71</v>
@@ -7974,7 +7989,7 @@
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>71</v>
@@ -7985,7 +8000,7 @@
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>71</v>
@@ -7996,7 +8011,7 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>71</v>
@@ -8007,7 +8022,7 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>71</v>
@@ -8018,7 +8033,7 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>71</v>
@@ -8029,7 +8044,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -8040,7 +8055,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -8051,7 +8066,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -8062,7 +8077,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8073,7 +8088,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8090,10 +8105,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8101,10 +8116,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8112,10 +8127,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8123,10 +8138,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8134,10 +8149,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8145,10 +8160,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8156,10 +8171,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8167,10 +8182,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8178,10 +8193,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8189,10 +8204,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="853">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2476,16 +2476,31 @@
     <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
   </si>
   <si>
+    <t xml:space="preserve">sort then for each element find the next greater element with diff &lt;= k</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longest Common Substring</t>
   </si>
   <si>
+    <t xml:space="preserve">Curr = prev + 1 or 0, result is maximum of curr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
   </si>
   <si>
+    <t xml:space="preserve">it’s coin change permutation problem</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
   </si>
   <si>
+    <t xml:space="preserve">balanced tree h has 3 subtree cases, (h-1, h-2), (h-2, h-1), (h-2, h-2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use kadane’s algorithm</t>
   </si>
   <si>
     <t xml:space="preserve">Smallest sum contiguous subarray</t>
@@ -3128,8 +3143,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A424" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D437" activeCellId="0" sqref="D437"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D445" activeCellId="0" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7771,8 +7786,8 @@
       <c r="C440" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="D440" s="11" t="s">
-        <v>71</v>
+      <c r="D440" s="7" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7780,10 +7795,10 @@
         <v>747</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="D441" s="11" t="s">
-        <v>71</v>
+        <v>809</v>
+      </c>
+      <c r="D441" s="7" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,10 +7806,10 @@
         <v>747</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="D442" s="11" t="s">
-        <v>71</v>
+        <v>811</v>
+      </c>
+      <c r="D442" s="7" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7802,10 +7817,10 @@
         <v>747</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="D443" s="11" t="s">
-        <v>71</v>
+        <v>813</v>
+      </c>
+      <c r="D443" s="7" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7813,10 +7828,10 @@
         <v>747</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="D444" s="11" t="s">
-        <v>71</v>
+        <v>815</v>
+      </c>
+      <c r="D444" s="7" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7824,9 +7839,9 @@
         <v>747</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="D445" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="D445" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7835,9 +7850,9 @@
         <v>747</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="D446" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="D446" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7846,9 +7861,9 @@
         <v>747</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="D447" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="D447" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7857,9 +7872,9 @@
         <v>747</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="D448" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="D448" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7868,9 +7883,9 @@
         <v>747</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="D449" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="D449" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7879,7 +7894,7 @@
         <v>747</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>71</v>
@@ -7890,7 +7905,7 @@
         <v>747</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>71</v>
@@ -7901,7 +7916,7 @@
         <v>747</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>71</v>
@@ -7912,7 +7927,7 @@
         <v>747</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>71</v>
@@ -7923,7 +7938,7 @@
         <v>747</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>71</v>
@@ -7934,7 +7949,7 @@
         <v>747</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>71</v>
@@ -7945,7 +7960,7 @@
         <v>747</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>71</v>
@@ -7956,7 +7971,7 @@
         <v>747</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>71</v>
@@ -7967,7 +7982,7 @@
         <v>747</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>71</v>
@@ -7978,7 +7993,7 @@
         <v>747</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>71</v>
@@ -7989,7 +8004,7 @@
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>71</v>
@@ -8000,7 +8015,7 @@
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>71</v>
@@ -8011,7 +8026,7 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>71</v>
@@ -8022,7 +8037,7 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>71</v>
@@ -8033,7 +8048,7 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>71</v>
@@ -8044,7 +8059,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -8055,7 +8070,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -8066,7 +8081,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -8077,7 +8092,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8088,7 +8103,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8105,10 +8120,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8116,10 +8131,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8127,10 +8142,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8138,10 +8153,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8149,10 +8164,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8160,10 +8175,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8171,10 +8186,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8182,10 +8197,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8193,10 +8208,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8204,10 +8219,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="857">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2509,13 +2509,25 @@
     <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
   </si>
   <si>
+    <t xml:space="preserve">Coin change combination problem</t>
+  </si>
+  <si>
     <t xml:space="preserve">Word Break Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">use 1d array of size A.length + 1, dp[i] += dp[j] if A[j,i] is in dictionary</t>
+  </si>
+  <si>
     <t xml:space="preserve">Largest Independent Set Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">LISS(root) = max(1 + grandchildren, children)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partition problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find if subset sum if sum/2</t>
   </si>
   <si>
     <t xml:space="preserve">Longest Palindromic Subsequence</t>
@@ -3143,8 +3155,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D445" activeCellId="0" sqref="D445"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A430" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D446" activeCellId="0" sqref="D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7841,8 +7853,8 @@
       <c r="C445" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="D445" s="11" t="s">
-        <v>71</v>
+      <c r="D445" s="7" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7852,8 +7864,8 @@
       <c r="C446" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="D446" s="11" t="s">
-        <v>71</v>
+      <c r="D446" s="7" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,10 +7873,10 @@
         <v>747</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="D447" s="11" t="s">
-        <v>71</v>
+        <v>820</v>
+      </c>
+      <c r="D447" s="7" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7872,10 +7884,10 @@
         <v>747</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="D448" s="11" t="s">
-        <v>71</v>
+        <v>822</v>
+      </c>
+      <c r="D448" s="7" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,10 +7895,10 @@
         <v>747</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="D449" s="11" t="s">
-        <v>71</v>
+        <v>824</v>
+      </c>
+      <c r="D449" s="7" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7894,9 +7906,9 @@
         <v>747</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="D450" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="D450" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7905,9 +7917,9 @@
         <v>747</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="D451" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="D451" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7916,9 +7928,9 @@
         <v>747</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="D452" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="D452" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7927,9 +7939,9 @@
         <v>747</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="D453" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="D453" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7938,9 +7950,9 @@
         <v>747</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="D454" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="D454" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7949,7 +7961,7 @@
         <v>747</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>71</v>
@@ -7960,7 +7972,7 @@
         <v>747</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>71</v>
@@ -7971,7 +7983,7 @@
         <v>747</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>71</v>
@@ -7982,7 +7994,7 @@
         <v>747</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>71</v>
@@ -7993,7 +8005,7 @@
         <v>747</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>71</v>
@@ -8004,7 +8016,7 @@
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>71</v>
@@ -8015,7 +8027,7 @@
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>71</v>
@@ -8026,7 +8038,7 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>71</v>
@@ -8037,7 +8049,7 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>71</v>
@@ -8048,7 +8060,7 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>71</v>
@@ -8059,7 +8071,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -8070,7 +8082,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -8081,7 +8093,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -8092,7 +8104,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8103,7 +8115,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8120,10 +8132,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8131,10 +8143,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8142,10 +8154,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8153,10 +8165,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8164,10 +8176,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8175,10 +8187,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8186,10 +8198,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8197,10 +8209,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8208,10 +8220,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8219,10 +8231,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="862">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2533,16 +2533,31 @@
     <t xml:space="preserve">Longest Palindromic Subsequence</t>
   </si>
   <si>
+    <t xml:space="preserve">use gap method using 2d matrix</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
   </si>
   <si>
+    <t xml:space="preserve">(c1=c2) =&gt; (c1m+mc2+1) else (c1m+mc2-m)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longest Palindromic Substring</t>
   </si>
   <si>
+    <t xml:space="preserve">expand from the middle strategy using start and end</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longest alternating subsequence</t>
   </si>
   <si>
+    <t xml:space="preserve">use up and down counter such that up = down + 1, down = up + 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort based on end, for each i, find non conflicting profit</t>
   </si>
   <si>
     <t xml:space="preserve">Coin game winner where every player has three choices</t>
@@ -3155,8 +3170,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A430" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D446" activeCellId="0" sqref="D446"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A439" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D455" activeCellId="0" sqref="D455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7908,8 +7923,8 @@
       <c r="C450" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="D450" s="11" t="s">
-        <v>71</v>
+      <c r="D450" s="7" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,10 +7932,10 @@
         <v>747</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="D451" s="11" t="s">
-        <v>71</v>
+        <v>828</v>
+      </c>
+      <c r="D451" s="7" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7928,10 +7943,10 @@
         <v>747</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="D452" s="11" t="s">
-        <v>71</v>
+        <v>830</v>
+      </c>
+      <c r="D452" s="7" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,10 +7954,10 @@
         <v>747</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="D453" s="11" t="s">
-        <v>71</v>
+        <v>832</v>
+      </c>
+      <c r="D453" s="7" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7950,10 +7965,10 @@
         <v>747</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="D454" s="11" t="s">
-        <v>71</v>
+        <v>834</v>
+      </c>
+      <c r="D454" s="7" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,9 +7976,9 @@
         <v>747</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="D455" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="D455" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7972,9 +7987,9 @@
         <v>747</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="D456" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="D456" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7983,9 +7998,9 @@
         <v>747</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="D457" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D457" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7994,9 +8009,9 @@
         <v>747</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="D458" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="D458" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8005,9 +8020,9 @@
         <v>747</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="D459" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="D459" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8016,7 +8031,7 @@
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>71</v>
@@ -8027,7 +8042,7 @@
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>71</v>
@@ -8038,7 +8053,7 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>71</v>
@@ -8049,7 +8064,7 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>71</v>
@@ -8060,7 +8075,7 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>71</v>
@@ -8071,7 +8086,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -8082,7 +8097,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -8093,7 +8108,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -8104,7 +8119,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8115,7 +8130,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8132,10 +8147,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8143,10 +8158,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8154,10 +8169,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8165,10 +8180,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8176,10 +8191,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8187,10 +8202,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8198,10 +8213,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8209,10 +8224,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8220,10 +8235,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8231,10 +8246,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="867">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2563,16 +2563,31 @@
     <t xml:space="preserve">Coin game winner where every player has three choices</t>
   </si>
   <si>
+    <t xml:space="preserve">A wins I coins if (I – 1) or (I – x) or (I – y) coin taking guy loses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
   </si>
   <si>
+    <t xml:space="preserve">f(n) = (n – 1) * (f(n – 1) + f(n – 2))</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
   </si>
   <si>
+    <t xml:space="preserve">Max = maxprofit(0, i) + maxprofit(i, n – 1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimal Strategy for a Game</t>
   </si>
   <si>
+    <t xml:space="preserve">similar to egg dropping problem, assume worst, do best</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solve for subtree subproblems, remember to add sum of freq to min</t>
   </si>
   <si>
     <t xml:space="preserve">Palindrome PartitioningProblem</t>
@@ -3171,7 +3186,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A439" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D455" activeCellId="0" sqref="D455"/>
+      <selection pane="topLeft" activeCell="D457" activeCellId="0" sqref="D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7978,8 +7993,8 @@
       <c r="C455" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="D455" s="11" t="s">
-        <v>71</v>
+      <c r="D455" s="7" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7987,10 +8002,10 @@
         <v>747</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="D456" s="11" t="s">
-        <v>71</v>
+        <v>838</v>
+      </c>
+      <c r="D456" s="7" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7998,10 +8013,10 @@
         <v>747</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="D457" s="11" t="s">
-        <v>71</v>
+        <v>840</v>
+      </c>
+      <c r="D457" s="7" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8009,10 +8024,10 @@
         <v>747</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="D458" s="11" t="s">
-        <v>71</v>
+        <v>842</v>
+      </c>
+      <c r="D458" s="7" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8020,10 +8035,10 @@
         <v>747</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="D459" s="11" t="s">
-        <v>71</v>
+        <v>844</v>
+      </c>
+      <c r="D459" s="7" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8031,9 +8046,9 @@
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D460" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="D460" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8042,9 +8057,9 @@
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="D461" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="D461" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8053,9 +8068,9 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="D462" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="D462" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8064,9 +8079,9 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="D463" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="D463" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8075,9 +8090,9 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="D464" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="D464" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8086,7 +8101,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -8097,7 +8112,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -8108,7 +8123,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -8119,7 +8134,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8130,7 +8145,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8147,10 +8162,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8158,10 +8173,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8169,10 +8184,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8180,10 +8195,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8191,10 +8206,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8202,10 +8217,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8213,10 +8228,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8224,10 +8239,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8235,10 +8250,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8246,10 +8261,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="869">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2593,7 +2593,13 @@
     <t xml:space="preserve">Palindrome PartitioningProblem</t>
   </si>
   <si>
+    <t xml:space="preserve">recursively ask for cuts after finding palindromes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Word Wrap Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use space matrix, cost array and arrangement array</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
@@ -3185,8 +3191,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A439" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D457" activeCellId="0" sqref="D457"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D462" activeCellId="0" sqref="D462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8041,7 +8047,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="5" t="s">
         <v>747</v>
       </c>
@@ -8049,18 +8055,18 @@
         <v>846</v>
       </c>
       <c r="D460" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D461" s="11" t="s">
-        <v>71</v>
+        <v>849</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8068,7 +8074,7 @@
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D462" s="11" t="s">
         <v>71</v>
@@ -8079,7 +8085,7 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D463" s="11" t="s">
         <v>71</v>
@@ -8090,7 +8096,7 @@
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D464" s="11" t="s">
         <v>71</v>
@@ -8101,7 +8107,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -8112,7 +8118,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -8123,7 +8129,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -8134,7 +8140,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8145,7 +8151,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8162,10 +8168,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8173,10 +8179,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8184,10 +8190,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8195,10 +8201,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8206,10 +8212,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8217,10 +8223,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8228,10 +8234,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8239,10 +8245,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8250,10 +8256,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8261,10 +8267,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="871">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2605,10 +2605,16 @@
     <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
   </si>
   <si>
+    <t xml:space="preserve">subproblem is the sequence ending at I where I = 0..9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boolean Parenthesization Problem</t>
   </si>
   <si>
     <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use max subarray sum zero (using hashtable) on each row after addition</t>
   </si>
   <si>
     <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
@@ -3192,7 +3198,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D462" activeCellId="0" sqref="D462"/>
+      <selection pane="topLeft" activeCell="C463" activeCellId="0" sqref="C463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8069,7 +8075,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="5" t="s">
         <v>747</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>850</v>
       </c>
       <c r="D462" s="11" t="s">
-        <v>71</v>
+        <v>851</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8085,21 +8091,21 @@
         <v>747</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D463" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D464" s="11" t="s">
-        <v>71</v>
+        <v>854</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8107,7 +8113,7 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>71</v>
@@ -8118,7 +8124,7 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>71</v>
@@ -8129,7 +8135,7 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>71</v>
@@ -8140,7 +8146,7 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>71</v>
@@ -8151,7 +8157,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>71</v>
@@ -8168,10 +8174,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8179,10 +8185,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8190,10 +8196,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8201,10 +8207,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8212,10 +8218,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8223,10 +8229,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8234,10 +8240,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8245,10 +8251,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8256,10 +8262,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8267,10 +8273,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="872">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2609,6 +2609,9 @@
   </si>
   <si>
     <t xml:space="preserve">Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solve using true count and false count table</t>
   </si>
   <si>
     <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
@@ -3198,7 +3201,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C463" activeCellId="0" sqref="C463"/>
+      <selection pane="topLeft" activeCell="D462" activeCellId="0" sqref="D462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8053,36 +8056,36 @@
         <v>845</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="D460" s="11" t="s">
+      <c r="D460" s="7" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="D461" s="11" t="s">
+      <c r="D461" s="7" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="D462" s="11" t="s">
+      <c r="D462" s="7" t="s">
         <v>851</v>
       </c>
     </row>
@@ -8093,19 +8096,19 @@
       <c r="C463" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="D463" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D463" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="D464" s="11" t="s">
         <v>854</v>
+      </c>
+      <c r="D464" s="7" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8113,9 +8116,9 @@
         <v>747</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="D465" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="D465" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8124,9 +8127,9 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="D466" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="D466" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8135,9 +8138,9 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="D467" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="D467" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8146,9 +8149,9 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="D468" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D468" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8157,9 +8160,9 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="D469" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D469" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8174,10 +8177,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8185,10 +8188,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8196,10 +8199,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8207,10 +8210,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8218,10 +8221,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8229,10 +8232,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8240,10 +8243,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8251,10 +8254,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8262,10 +8265,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8273,10 +8276,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="876">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2623,13 +2623,25 @@
     <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
   </si>
   <si>
+    <t xml:space="preserve">Take 1 as 1 and 0 as -1, then perform largest area rectangle with sum zero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
   </si>
   <si>
+    <t xml:space="preserve">similar to largestsumrectangle but use kadane’s algorithm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
   </si>
   <si>
+    <t xml:space="preserve">subproblem is the maxprofit upto k transaction using n days</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use topdown approach using NxM matrix for memoization</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Length of Pair Chain</t>
@@ -3201,7 +3213,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D462" activeCellId="0" sqref="D462"/>
+      <selection pane="topLeft" activeCell="D470" activeCellId="0" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8118,8 +8130,8 @@
       <c r="C465" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="D465" s="11" t="s">
-        <v>71</v>
+      <c r="D465" s="7" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8127,10 +8139,10 @@
         <v>747</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="D466" s="11" t="s">
-        <v>71</v>
+        <v>858</v>
+      </c>
+      <c r="D466" s="7" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8138,10 +8150,10 @@
         <v>747</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="D467" s="11" t="s">
-        <v>71</v>
+        <v>860</v>
+      </c>
+      <c r="D467" s="7" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,10 +8161,10 @@
         <v>747</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="D468" s="11" t="s">
-        <v>71</v>
+        <v>862</v>
+      </c>
+      <c r="D468" s="7" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,7 +8172,7 @@
         <v>747</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D469" s="11" t="s">
         <v>71</v>
@@ -8177,10 +8189,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>71</v>
@@ -8188,10 +8200,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>71</v>
@@ -8199,10 +8211,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>71</v>
@@ -8210,10 +8222,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>71</v>
@@ -8221,10 +8233,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>71</v>
@@ -8232,10 +8244,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>71</v>
@@ -8243,10 +8255,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>71</v>
@@ -8254,10 +8266,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>71</v>
@@ -8265,10 +8277,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>71</v>
@@ -8276,10 +8288,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>71</v>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="882">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2647,22 +2647,40 @@
     <t xml:space="preserve">Maximum Length of Pair Chain</t>
   </si>
   <si>
+    <t xml:space="preserve">it’s the longest increasing pair problem</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bit Manipulation</t>
   </si>
   <si>
     <t xml:space="preserve">Count set bits in an integer</t>
   </si>
   <si>
+    <t xml:space="preserve">if (N == 0) → 0 else →  (N &amp; 1 + recurse)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
   </si>
   <si>
+    <t xml:space="preserve">use xor mask method</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
   </si>
   <si>
+    <t xml:space="preserve">perform xor then count setbits</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
   </si>
   <si>
+    <t xml:space="preserve">recursively calculate setbit less than highest power of 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N &amp; (N – 1) == 0</t>
   </si>
   <si>
     <t xml:space="preserve">Find position of the only set bit</t>
@@ -3212,8 +3230,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D470" activeCellId="0" sqref="D470"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A454" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D472" activeCellId="0" sqref="D472:D476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8174,8 +8192,8 @@
       <c r="C469" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="D469" s="11" t="s">
-        <v>71</v>
+      <c r="D469" s="7" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8189,111 +8207,111 @@
     </row>
     <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="D472" s="10" t="s">
-        <v>71</v>
+        <v>867</v>
+      </c>
+      <c r="D472" s="7" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="D473" s="10" t="s">
-        <v>71</v>
+        <v>869</v>
+      </c>
+      <c r="D473" s="7" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="D474" s="10" t="s">
-        <v>71</v>
+        <v>871</v>
+      </c>
+      <c r="D474" s="7" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="D475" s="10" t="s">
-        <v>71</v>
+        <v>873</v>
+      </c>
+      <c r="D475" s="7" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D476" s="10" t="s">
-        <v>71</v>
+        <v>875</v>
+      </c>
+      <c r="D476" s="7" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="D477" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="D477" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="D478" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="D478" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D479" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="D479" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="D480" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="D480" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="D481" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="D481" s="11" t="s">
         <v>71</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="887">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2686,16 +2686,31 @@
     <t xml:space="preserve">Find position of the only set bit</t>
   </si>
   <si>
+    <t xml:space="preserve">use power of 2 concept</t>
+  </si>
+  <si>
     <t xml:space="preserve">Copy set bits in a range</t>
   </si>
   <si>
+    <t xml:space="preserve">use bitmask method</t>
+  </si>
+  <si>
     <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
   </si>
   <si>
+    <t xml:space="preserve">successive substraction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
   </si>
   <si>
+    <t xml:space="preserve">find set bits and perform addition after shifting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Power Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find 2 ^ n strings</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3245,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A454" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D472" activeCellId="0" sqref="D472:D476"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A460" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D479" activeCellId="0" sqref="D479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8267,8 +8282,8 @@
       <c r="C477" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="D477" s="11" t="s">
-        <v>71</v>
+      <c r="D477" s="7" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8276,21 +8291,21 @@
         <v>866</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="D478" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>879</v>
+      </c>
+      <c r="D478" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
         <v>866</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D479" s="11" t="s">
-        <v>71</v>
+        <v>882</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,21 +8313,21 @@
         <v>866</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="D480" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>883</v>
+      </c>
+      <c r="D480" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
         <v>866</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D481" s="11" t="s">
-        <v>71</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -3245,8 +3245,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A460" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D479" activeCellId="0" sqref="D479"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8297,14 +8297,14 @@
         <v>880</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
         <v>866</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="D479" s="11" t="s">
+      <c r="D479" s="7" t="s">
         <v>882</v>
       </c>
     </row>
@@ -8319,14 +8319,14 @@
         <v>884</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
         <v>866</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="D481" s="11" t="s">
+      <c r="D481" s="7" t="s">
         <v>886</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="893">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2656,7 +2656,7 @@
     <t xml:space="preserve">Count set bits in an integer</t>
   </si>
   <si>
-    <t xml:space="preserve">if (N == 0) → 0 else →  (N &amp; 1 + recurse)</t>
+    <t xml:space="preserve">use kernighan’s algorithm (using right most set bit mask)</t>
   </si>
   <si>
     <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
@@ -2711,6 +2711,24 @@
   </si>
   <si>
     <t xml:space="preserve">Find 2 ^ n strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josephus Special Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at first bit 1 survives, then bit of l decides next survivors, l = n – 2^x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of software developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use backtracking and bit masking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find number of valid words for puzzles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use bitmask and hashmap</t>
   </si>
 </sst>
 </file>
@@ -3243,10 +3261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A464" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D485" activeCellId="0" sqref="D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8220,7 +8238,7 @@
       <c r="C471" s="9"/>
       <c r="D471" s="10"/>
     </row>
-    <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="5" t="s">
         <v>866</v>
       </c>
@@ -8319,7 +8337,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="5" t="s">
         <v>866</v>
       </c>
@@ -8328,6 +8346,39 @@
       </c>
       <c r="D481" s="7" t="s">
         <v>886</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C482" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="D482" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="D483" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C484" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D484" s="7" t="s">
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -8778,6 +8829,9 @@
     <hyperlink ref="C479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
     <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
     <hyperlink ref="C481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="C482" r:id="rId447" display="Josephus Special Case"/>
+    <hyperlink ref="C483" r:id="rId448" display="Minimum number of software developers"/>
+    <hyperlink ref="C484" r:id="rId449" display="Find number of valid words for puzzles"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="903">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2653,28 +2653,76 @@
     <t xml:space="preserve">Bit Manipulation</t>
   </si>
   <si>
+    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find set bits and perform addition after shifting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy set bits in a range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use bitmask method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perform xor then count setbits</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count set bits in an integer</t>
   </si>
   <si>
     <t xml:space="preserve">use kernighan’s algorithm (using right most set bit mask)</t>
   </si>
   <si>
+    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursively calculate setbit less than highest power of 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">successive substraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find number of valid words for puzzles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use bitmask and hashmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find position of the only set bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use power of 2 concept</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
   </si>
   <si>
     <t xml:space="preserve">use xor mask method</t>
   </si>
   <si>
-    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perform xor then count setbits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recursively calculate setbit less than highest power of 2</t>
+    <t xml:space="preserve">Josephus Special Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at first bit 1 survives, then bit of l decides next survivors, l = n – 2^x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of software developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use backtracking and bit masking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find 2 ^ n strings</t>
   </si>
   <si>
     <t xml:space="preserve">Program to find whether a no is power of two</t>
@@ -2683,52 +2731,34 @@
     <t xml:space="preserve">N &amp; (N – 1) == 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Find position of the only set bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use power of 2 concept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy set bits in a range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use bitmask method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">successive substraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find set bits and perform addition after shifting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find 2 ^ n strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josephus Special Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at first bit 1 survives, then bit of l decides next survivors, l = n – 2^x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of software developers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use backtracking and bit masking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find number of valid words for puzzles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use bitmask and hashmap</t>
+    <t xml:space="preserve">Find missing and repeating number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert the problem into find non repeating numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find number occuring once</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xor is your friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplets which form equal xor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add subarray length whose xor is zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum steps to reduce n to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Represent number as 4x, 4x+1, 4x+2, 4x+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count numbers with same count of set bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursively solve using combination</t>
   </si>
 </sst>
 </file>
@@ -3261,10 +3291,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D484"/>
+  <dimension ref="A1:D489"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A464" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D485" activeCellId="0" sqref="D485"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A467" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D490" activeCellId="0" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8249,7 +8279,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="5" t="s">
         <v>866</v>
       </c>
@@ -8260,7 +8290,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="5" t="s">
         <v>866</v>
       </c>
@@ -8271,7 +8301,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="5" t="s">
         <v>866</v>
       </c>
@@ -8282,7 +8312,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="5" t="s">
         <v>866</v>
       </c>
@@ -8293,7 +8323,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="5" t="s">
         <v>866</v>
       </c>
@@ -8304,7 +8334,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="5" t="s">
         <v>866</v>
       </c>
@@ -8315,7 +8345,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="5" t="s">
         <v>866</v>
       </c>
@@ -8326,7 +8356,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="5" t="s">
         <v>866</v>
       </c>
@@ -8379,6 +8409,61 @@
       </c>
       <c r="D484" s="7" t="s">
         <v>892</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C485" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="D485" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C486" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D486" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C487" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="D487" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B488" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C488" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="D488" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B489" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C489" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="D489" s="7" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -8819,19 +8904,24 @@
     <hyperlink ref="C467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
     <hyperlink ref="C468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
     <hyperlink ref="C469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="C473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C472" r:id="rId437" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C473" r:id="rId438" display="Copy set bits in a range"/>
     <hyperlink ref="C474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="C478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="C479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C481" r:id="rId446" display="Power Set"/>
-    <hyperlink ref="C482" r:id="rId447" display="Josephus Special Case"/>
-    <hyperlink ref="C483" r:id="rId448" display="Minimum number of software developers"/>
-    <hyperlink ref="C484" r:id="rId449" display="Find number of valid words for puzzles"/>
+    <hyperlink ref="C475" r:id="rId440" display="Count set bits in an integer"/>
+    <hyperlink ref="C476" r:id="rId441" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C477" r:id="rId442" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C478" r:id="rId443" display="Find number of valid words for puzzles"/>
+    <hyperlink ref="C479" r:id="rId444" display="Find position of the only set bit"/>
+    <hyperlink ref="C480" r:id="rId445" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C481" r:id="rId446" display="Josephus Special Case"/>
+    <hyperlink ref="C482" r:id="rId447" display="Minimum number of software developers"/>
+    <hyperlink ref="C483" r:id="rId448" display="Power Set"/>
+    <hyperlink ref="C484" r:id="rId449" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C485" r:id="rId450" display="Find missing and repeating number"/>
+    <hyperlink ref="C486" r:id="rId451" display="Find number occuring once"/>
+    <hyperlink ref="C487" r:id="rId452" display="Count triplets which form equal xor"/>
+    <hyperlink ref="C488" r:id="rId453" display="Minimum steps to reduce n to 1"/>
+    <hyperlink ref="C489" r:id="rId454" display="Count numbers with same count of set bits"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="909">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2759,6 +2759,24 @@
   </si>
   <si>
     <t xml:space="preserve">recursively solve using combination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print All Abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">represent using number 0 to 2 ^ n – 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTF 8 Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use next counter and try to avoid branching too much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solve Sudoku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use bit mask for row, col, grid to keep track of availability</t>
   </si>
 </sst>
 </file>
@@ -3291,10 +3309,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D489"/>
+  <dimension ref="A1:D493"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A467" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D490" activeCellId="0" sqref="D490"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A476" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D493" activeCellId="0" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8465,6 +8483,46 @@
       <c r="D489" s="7" t="s">
         <v>902</v>
       </c>
+    </row>
+    <row r="490" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B490" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C490" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="D490" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B491" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C491" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="D491" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B492" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C492" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="D492" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B493" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C493" s="6"/>
+      <c r="D493" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8922,6 +8980,9 @@
     <hyperlink ref="C487" r:id="rId452" display="Count triplets which form equal xor"/>
     <hyperlink ref="C488" r:id="rId453" display="Minimum steps to reduce n to 1"/>
     <hyperlink ref="C489" r:id="rId454" display="Count numbers with same count of set bits"/>
+    <hyperlink ref="C490" r:id="rId455" display="Print All Abbreviation"/>
+    <hyperlink ref="C491" r:id="rId456" display="UTF 8 Validation"/>
+    <hyperlink ref="C492" r:id="rId457" display="Solve Sudoku"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="915">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2777,6 +2777,24 @@
   </si>
   <si>
     <t xml:space="preserve">use bit mask for row, col, grid to keep track of availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find number occuring once where others occur thrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count set bits and mod by 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swap all even and odd bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xAAAAAAAA is all even bits on and 0x55555555 is all odd bits on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of bit differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bit wise count number with set bits and unset bits</t>
   </si>
 </sst>
 </file>
@@ -3309,10 +3327,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D493"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A476" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D493" activeCellId="0" sqref="D493"/>
+      <selection pane="topLeft" activeCell="D496" activeCellId="0" sqref="D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8521,8 +8539,41 @@
       <c r="B493" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C493" s="6"/>
-      <c r="D493" s="7"/>
+      <c r="C493" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="D493" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B494" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C494" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="D494" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B495" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C495" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="D495" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C496" s="6"/>
+      <c r="D496" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8983,6 +9034,9 @@
     <hyperlink ref="C490" r:id="rId455" display="Print All Abbreviation"/>
     <hyperlink ref="C491" r:id="rId456" display="UTF 8 Validation"/>
     <hyperlink ref="C492" r:id="rId457" display="Solve Sudoku"/>
+    <hyperlink ref="C493" r:id="rId458" display="Find number occuring once where others occur thrice"/>
+    <hyperlink ref="C494" r:id="rId459" display="Swap all even and odd bits"/>
+    <hyperlink ref="C495" r:id="rId460" display="Sum of bit differences"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="921">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -2795,6 +2795,24 @@
   </si>
   <si>
     <t xml:space="preserve">bit wise count number with set bits and unset bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left shift reverse and right shift number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum XOR Pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">either use sort method or trie method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find nth binary palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find len, offset then, calculate using reverse method</t>
   </si>
 </sst>
 </file>
@@ -3327,10 +3345,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D496"/>
+  <dimension ref="A1:D499"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A476" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D496" activeCellId="0" sqref="D496"/>
+      <selection pane="topLeft" activeCell="D499" activeCellId="0" sqref="D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8572,8 +8590,41 @@
       <c r="B496" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C496" s="6"/>
-      <c r="D496" s="7"/>
+      <c r="C496" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="D496" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C497" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="D497" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B498" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C498" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="D498" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B499" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C499" s="6"/>
+      <c r="D499" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9037,6 +9088,9 @@
     <hyperlink ref="C493" r:id="rId458" display="Find number occuring once where others occur thrice"/>
     <hyperlink ref="C494" r:id="rId459" display="Swap all even and odd bits"/>
     <hyperlink ref="C495" r:id="rId460" display="Sum of bit differences"/>
+    <hyperlink ref="C496" r:id="rId461" display="Reverse a number"/>
+    <hyperlink ref="C497" r:id="rId462" display="Minimum XOR Pair"/>
+    <hyperlink ref="C498" r:id="rId463" display="Find nth binary palindrome"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -3269,7 +3269,7 @@
     <cellStyle name="Card TL" xfId="29"/>
     <cellStyle name="Card TR" xfId="30"/>
     <cellStyle name="Column Header" xfId="31"/>
-    <cellStyle name="Heading1" xfId="32"/>
+    <cellStyle name="Heading 1" xfId="32"/>
     <cellStyle name="Input" xfId="33"/>
     <cellStyle name="Result2" xfId="34"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
@@ -3347,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A476" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D499" activeCellId="0" sqref="D499"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9094,7 +9094,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -3269,7 +3269,7 @@
     <cellStyle name="Card TL" xfId="29"/>
     <cellStyle name="Card TR" xfId="30"/>
     <cellStyle name="Column Header" xfId="31"/>
-    <cellStyle name="Heading 1" xfId="32"/>
+    <cellStyle name="Heading 1 1" xfId="32"/>
     <cellStyle name="Input" xfId="33"/>
     <cellStyle name="Result2" xfId="34"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
@@ -3347,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -3347,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -3347,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C227" activeCellId="0" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -613,7 +613,7 @@
     <t xml:space="preserve">Product array Puzzle</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes/ count zeroes</t>
+    <t xml:space="preserve">Yes/ result = left_product * right_product</t>
   </si>
   <si>
     <t xml:space="preserve">Sort array according to count of set bits</t>
@@ -3347,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C227" activeCellId="0" sqref="C227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D116" activeCellId="0" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4566,7 +4566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="5" t="s">
         <v>170</v>
       </c>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -1336,7 +1336,7 @@
     <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
   </si>
   <si>
-    <t xml:space="preserve">find minimum, remove coin from pile - min - k</t>
+    <t xml:space="preserve">sort then select the second max leaving small for bob</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
@@ -3347,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D116" activeCellId="0" sqref="D116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A227" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D243" activeCellId="0" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5907,7 +5907,7 @@
       <c r="C243" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D243" s="11" t="s">
+      <c r="D243" s="7" t="s">
         <v>438</v>
       </c>
     </row>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -1570,7 +1570,7 @@
     <t xml:space="preserve">Tug of War</t>
   </si>
   <si>
-    <t xml:space="preserve">minDiff = sum/2 - currentSum, if N/2 - nSelected &gt; remaining, return</t>
+    <t xml:space="preserve">backtrack if first.size &lt; n+1 / 2, second.size &lt; n – 1 / 2</t>
   </si>
   <si>
     <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
@@ -3347,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A227" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D243" activeCellId="0" sqref="D243"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A275" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D284" activeCellId="0" sqref="D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6337,7 +6337,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="5" t="s">
         <v>496</v>
       </c>
